--- a/spec/fixtures/files/コード内容別一覧表（薬局）テスト.xlsx
+++ b/spec/fixtures/files/コード内容別一覧表（薬局）テスト.xlsx
@@ -34,10 +34,10 @@
     <t>00・0000・1</t>
   </si>
   <si>
-    <t>テスト薬局A</t>
-  </si>
-  <si>
-    <t>〒012－3456長野市南長野幅下６９２－２</t>
+    <t>テスト薬局名A</t>
+  </si>
+  <si>
+    <t>〒160－0014新宿区内藤町１１</t>
   </si>
   <si>
     <t>012-345-6789</t>
@@ -73,7 +73,7 @@
     <t>00・0000・2</t>
   </si>
   <si>
-    <t>テスト薬局B</t>
+    <t>テスト薬局名B</t>
   </si>
   <si>
     <t>〒012－3457新宿区西新宿２－８－１</t>
@@ -109,10 +109,10 @@
     <t>00・0000・3</t>
   </si>
   <si>
-    <t>テスト薬局C</t>
-  </si>
-  <si>
-    <t>〒012－3458さいたま市浦和区高砂３－１５－１</t>
+    <t>テスト薬局名C</t>
+  </si>
+  <si>
+    <t>〒060－0022新宿区新宿３丁目３８−１</t>
   </si>
   <si>
     <t>012-345-6781</t>
@@ -157,12 +157,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,16 +181,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,10 +207,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -224,6 +230,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -375,9 +382,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -457,7 +464,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -485,10 +492,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -744,9 +751,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1034,7 +1041,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1062,10 +1069,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1323,10 +1330,10 @@
   <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.4609" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3906" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5547" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="24" width="9.17188" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9.17188" style="1" customWidth="1"/>
   </cols>

--- a/spec/fixtures/files/コード内容別一覧表（薬局）テスト.xlsx
+++ b/spec/fixtures/files/コード内容別一覧表（薬局）テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>コード内容別医療機関一覧表</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>令4. 7. 1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>00・0000・4</t>
+  </si>
+  <si>
+    <t>〒160－0022新宿区新宿３丁目３４−９</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1947,7 +1956,7 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1979,7 +1988,7 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2009,7 +2018,7 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2037,7 +2046,7 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2064,6 +2073,40 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
+    <row r="25" ht="13.65" customHeight="1">
+      <c r="A25" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
